--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 8.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 2 variables 8.xlsx_with_dialog_acts.xlsx
@@ -728,12 +728,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -800,12 +800,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1558,12 +1558,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
